--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Cavalier-Smith/Thomas_Cavalier-Smith.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Cavalier-Smith/Thomas_Cavalier-Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas (Tom) Cavalier-Smith (né le 21 octobre 1942 et mort le 19 mars 2021[1]) est professeur de biologie évolutive au département de zoologie de l'université d'Oxford. Il reçoit le Prix international de biologie (un prix de 10 millions de yens) en 2004[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas (Tom) Cavalier-Smith (né le 21 octobre 1942 et mort le 19 mars 2021) est professeur de biologie évolutive au département de zoologie de l'université d'Oxford. Il reçoit le Prix international de biologie (un prix de 10 millions de yens) en 2004
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cavalier-Smith a publié de nombreux ouvrages sur la classification. Une de ses principales contributions à la biologie est sa proposition d'un sixième règne du vivant : les Chromista, bien que l'utilité du groupement soit encore sujette à débat. Il émet aussi l'hypothèse que tous les Chromista et Alveolata partagent le même ancêtre commun, hypothèse qui est avérée par des études morphologiques et moléculaires[3],[4]. Il appelle ce nouveau groupe « Chromalveolata ». Il propose aussi le nom de nombreux autres taxons, comme Opisthokonta (1987), Rhizaria (2002), et Excavata (2002). Avec Chromalveolata, Amoebozoa (il énonce leur description en 1998) et Archaeplastida, tous les six forment la base de la taxonomie des eucaryotes. Le professeur Cavalier-Smith publie aussi des articles sur des questions telles que l'origine de plusieurs organites cellulaires (notamment au niveau du noyau et des mitochondries). Bien que relativement connues, bon nombre de ses thèses les mieux étayées sont controversées et ne  recueillent pas un large soutien dans la communauté scientifique à ce jour[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cavalier-Smith a publié de nombreux ouvrages sur la classification. Une de ses principales contributions à la biologie est sa proposition d'un sixième règne du vivant : les Chromista, bien que l'utilité du groupement soit encore sujette à débat. Il émet aussi l'hypothèse que tous les Chromista et Alveolata partagent le même ancêtre commun, hypothèse qui est avérée par des études morphologiques et moléculaires,. Il appelle ce nouveau groupe « Chromalveolata ». Il propose aussi le nom de nombreux autres taxons, comme Opisthokonta (1987), Rhizaria (2002), et Excavata (2002). Avec Chromalveolata, Amoebozoa (il énonce leur description en 1998) et Archaeplastida, tous les six forment la base de la taxonomie des eucaryotes. Le professeur Cavalier-Smith publie aussi des articles sur des questions telles que l'origine de plusieurs organites cellulaires (notamment au niveau du noyau et des mitochondries). Bien que relativement connues, bon nombre de ses thèses les mieux étayées sont controversées et ne  recueillent pas un large soutien dans la communauté scientifique à ce jour,.
 Plus récemment, il publie un document traitant de la taxonomie des procaryotes.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Thomas Cavalier-Smith, « Eukaryote kingdoms: Seven or nine? », BioSystems, vol. 14, nos 3-4,‎ 1981, p. 461–481 (DOI 10.1016/0303-2647(81)90050-2).
 (en) Thomas Cavalier-Smith, « The kingdoms of organisms », Nature, vol. 324, no 6096,‎ 4 décembre 1986, p. 416-417 (DOI 10.1038/324416a0).
